--- a/biology/Botanique/Eucalyptus_sideroxylon/Eucalyptus_sideroxylon.xlsx
+++ b/biology/Botanique/Eucalyptus_sideroxylon/Eucalyptus_sideroxylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus sideroxylon, l'eucalyptus à écorce de fer, Ironbark rouge ou mugga est une espèce d'arbre australien de la famille des Myrtaceae. Il doit son nom à son écorce persistante sur le tronc et les grosses branches, écorce dure, rugueuse d'un gris presque noir alors qu'elle est lisse et blanche sur les jeunes branches.
 Les feuilles adultes sont pétiolées, lancéolées mesurant 14 cm de long sur 1,8 cm de large, d'un gris ou vert terne; les fleurs sont de couleur blanche, rose, rouge ou jaune pâle et apparaissent du début de l'automne jusqu'au milieu du printemps.
